--- a/test_design/testcases.xlsx
+++ b/test_design/testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huong/gitcode/OpenWeather/test_design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A166E25-BEED-454D-B4D7-A50BDE3A45D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE38B958-8EAF-A648-A558-05870E754C1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16280" xr2:uid="{BD03F1C8-5D91-384A-AA41-AB90B05E3505}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{BD03F1C8-5D91-384A-AA41-AB90B05E3505}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>No.</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Verify correct HTTP status code</t>
   </si>
   <si>
-    <t>Verify response payload</t>
-  </si>
-  <si>
     <t>API Test Actions</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Negative testing with valid input</t>
   </si>
   <si>
-    <t>Destructive testing</t>
-  </si>
-  <si>
     <t>Tes Scenario Category</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>api-search-3</t>
   </si>
   <si>
-    <t>api-search-4</t>
-  </si>
-  <si>
     <t>api-search-5</t>
   </si>
   <si>
@@ -195,14 +186,249 @@
     <t>api-search-10</t>
   </si>
   <si>
-    <t>Use POSTMAN to call this request:</t>
+    <t>Open this URL on browser:</t>
+  </si>
+  <si>
+    <t>Response.StatusCode = 200</t>
+  </si>
+  <si>
+    <t>Verify use correct 500 error HTTP status code &amp; error message</t>
+  </si>
+  <si>
+    <t>Verify use correct 401 error HTTP status code &amp; error message</t>
+  </si>
+  <si>
+    <t>Response.StatusCode = 401 Unauthorized /// {"cod": 401,"message": "Invalid API key. Please see http://openweathermap.org/faq#error401 for more info."}</t>
+  </si>
+  <si>
+    <t>Response.StatusCode = 500 // {"cod": 500,"message": "Internal server error"}</t>
+  </si>
+  <si>
+    <t>Access-Control-Allow-Credentials: true
+Access-Control-Allow-Methods: GET, POST
+Access-Control-Allow-Origin: *
+Connection: keep-alive
+Content-Encoding: gzip
+Content-Type: application/json; charset=utf-8
+Date: Tue, 29 Dec 2020 08:34:05 GMT
+Server: openresty/1.9.7.1</t>
+  </si>
+  <si>
+    <t>Open this URL on browser: https://openweathermap.org/data/2.5/find?callback=jQuery19109524587905221953_1609195325996&amp;q=,AU&amp;type=like&amp;sort=population&amp;cnt=30&amp;appid=439d4b804bc8187953eb36d2a8c26a02&amp;_=1609195326002</t>
+  </si>
+  <si>
+    <t>Verify GET request - response payload</t>
+  </si>
+  <si>
+    <t>Open this URL on browser:   https://openweathermap.org/data/2.5/find?q=glenwood,au&amp;appid=439d4b804bc8187953eb36d2a8c26a02</t>
+  </si>
+  <si>
+    <t>Open this URL on browser: https://openweathermap.org/data/2.5/find?q=glenwood,au&amp;appid=439d4b804bc8187953eb36d2a8c26a02</t>
+  </si>
+  <si>
+    <t>Open this URL on browser:   https://openweathermap.org/data/2.5/find?q=glenwood,AU&amp;type=like&amp;sort=population&amp;cnt=30&amp;appid=439d4b804bc8187953eb36d2a8c26a02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify return correct value of temperature by units parameter: </t>
+  </si>
+  <si>
+    <t>For temperature in Fahrenheit use units=imperial
+For temperature in Celsius use units=metric
+Temperature in Kelvin is used by default, no need to use units parameter in API call Open this URL on browser: https://openweathermap.org/data/2.5/find?q=berlin&amp;units=metric&amp;appid=439d4b804bc8187953eb36d2a8c26a02</t>
+  </si>
+  <si>
+    <t>Return correctly value of temperature in response payload in correct unit [Celsius, Fahrenheit, Kelvin]</t>
+  </si>
+  <si>
+    <t>Verify POST method of API</t>
+  </si>
+  <si>
+    <t>Repeat testing all test cases: change from GET  to  POST method…. Using POSTMAN tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User search weather in the city by city name only, for example: Oulu </t>
+  </si>
+  <si>
+    <t>User search weather in the city by city name and country code, for example: Hamburg, DE</t>
+  </si>
+  <si>
+    <t>Verify auto-suggestion when user input a city which have same name cities in many countries</t>
+  </si>
+  <si>
+    <t>Verify search result is showing correctly as design</t>
+  </si>
+  <si>
+    <t>Check visibility of Search box in the different device screens: Window, MAC, Ipad, mobile…</t>
+  </si>
+  <si>
+    <t>User inputs data with special characters: ~`!@#$%^&amp;*()_-=+|\?/.,&lt;&gt;][{}</t>
+  </si>
+  <si>
+    <t>User inputs case sensitive data. Checking uppercase, lowcase letter in city name and country code</t>
+  </si>
+  <si>
+    <t>User input data with white-space.</t>
+  </si>
+  <si>
+    <t>User search weather of another city in search result page</t>
+  </si>
+  <si>
+    <t>User search non-existing cities</t>
+  </si>
+  <si>
+    <t>User view detail weather of a city from search result page</t>
+  </si>
+  <si>
+    <t>User search another city from view detail weather of a city</t>
+  </si>
+  <si>
+    <t>User search a non-existing city from view detail weather of a city</t>
+  </si>
+  <si>
+    <t>Open this URL on browser: https://openweathermap.org/data/2.5/find?q=berlin&amp;#&amp;appid=439d4b804bc8187953eb36d2a8c26a02</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>Open this URL on browser: https://openweathermap.org/data/2.5/find?q=berlin</t>
+  </si>
+  <si>
+    <t>({
+    "message": "accurate",
+    "cod": "200",
+    "count": 1,
+    "list": [
+        {
+            "id": 7302259,
+            "name": "Glenwood",
+            "coord": {
+                "lat": -33.7331,
+                "lon": 150.9282
+            },
+            "main": {
+                "temp": 292.22,
+                "feels_like": 294.3,
+                "temp_min": 291.48,
+                "temp_max": 293.15,
+                "pressure": 1012,
+                "humidity": 88
+            },
+            "dt": 1609229344,
+            "wind": {
+                "speed": 0.45,
+                "deg": 177
+            },
+            "sys": {
+                "country": "AU"
+            },
+            "rain": {
+                "1h": 0.16
+            },
+            "snow": null,
+            "clouds": {
+                "all": 100
+            },
+            "weather": [
+                {
+                    "id": 500,
+                    "main": "Rain",
+                    "description": "light rain",
+                    "icon": "10d"
+                }
+            ]
+        }
+    ]
+})</t>
+  </si>
+  <si>
+    <t>Security, authorization</t>
+  </si>
+  <si>
+    <t>Check that API is design according to correct security principles. Ensure API refuse all unauthorized calls</t>
+  </si>
+  <si>
+    <t>Call request by GET, and then POST method to https://openweathermap.org/data/2.5/find?q=berlin&amp;#&amp;appid=xyz83333542</t>
+  </si>
+  <si>
+    <t>Protocol checking</t>
+  </si>
+  <si>
+    <t>Call GET, and then POST request to this URL (http) http://openweathermap.org/data/2.5/find?q=,AU&amp;appid=439d4b804bc8187953eb36d2a8c26a02</t>
+  </si>
+  <si>
+    <t>Rate limiting, throttling</t>
+  </si>
+  <si>
+    <t>Access control policies: Verify each policy</t>
+  </si>
+  <si>
+    <t>Checking access of each type below Access-Control-Allow-Credentials: true
+Access-Control-Allow-Methods: GET, POST
+Access-Control-Allow-Origin: *</t>
+  </si>
+  <si>
+    <t>Open this URL on browser: https://openweathermap.org/data/2.5/find?q=ab&amp;#&amp;appid=439d4b804bc8187953eb36d2a8c26a02</t>
+  </si>
+  <si>
+    <t>{
+    "message": "accurate",
+    "cod": "200",
+    "count": 0,
+    "list": []
+}</t>
+  </si>
+  <si>
+    <t>{
+    "cod": 500,
+    "message": "Internal server error"
+}</t>
+  </si>
+  <si>
+    <t>Use JMETER tool to do stress test (1000k-5000k requests in 5 minutes) by sendingboth  GET request &amp; POST to this URL with different input values from CSV file for &amp;q=&lt;&lt;variable&gt;&gt;&amp;  https://openweathermap.org/data/2.5/find?callback=jQuery19109524587905221953</t>
+  </si>
+  <si>
+    <t>API should be set rate limitation, and all requests will be throttled when they exceed limit</t>
+  </si>
+  <si>
+    <t>api-search-11</t>
+  </si>
+  <si>
+    <t>api-search-12</t>
+  </si>
+  <si>
+    <t>api-search-13</t>
+  </si>
+  <si>
+    <t>api-search-14</t>
+  </si>
+  <si>
+    <t>api-search-15</t>
+  </si>
+  <si>
+    <t>Do stress test under limitation of API</t>
+  </si>
+  <si>
+    <t>Use JMETER tool to do stress test (50k-100k requests in 5 minutes) by sendingboth  GET request &amp; POST to this URL with different input values from CSV file for &amp;q=&lt;&lt;variable&gt;&gt;&amp;               https://openweathermap.org/data/2.5/find?q=glenwood,AU&amp;type=like&amp;sort=population&amp;cnt=30&amp;appid=439d4b804bc8187953eb36d2a8c26a02&amp;</t>
+  </si>
+  <si>
+    <t>Boundary</t>
+  </si>
+  <si>
+    <t>User input 1, 2 letters for searching</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_short_place_names</t>
+  </si>
+  <si>
+    <t>User input 500 characters for searching</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,6 +458,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -336,9 +576,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -348,8 +594,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,17 +916,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10C6143-233F-704C-8AC0-5CC9A98D5DE0}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="52.6640625" customWidth="1"/>
     <col min="6" max="6" width="47.1640625" customWidth="1"/>
@@ -683,15 +934,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -701,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -716,279 +967,605 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C44" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="3:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="56" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>22</v>
-      </c>
+    <row r="57" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="C57" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="3:5" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C61" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_design/testcases.xlsx
+++ b/test_design/testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huong/gitcode/OpenWeather/test_design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE38B958-8EAF-A648-A558-05870E754C1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C61978-551D-4649-9F4A-CCD6901F4C62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{BD03F1C8-5D91-384A-AA41-AB90B05E3505}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
   <si>
     <t>No.</t>
   </si>
@@ -294,7 +294,92 @@
     <t>Open this URL on browser: https://openweathermap.org/data/2.5/find?q=berlin</t>
   </si>
   <si>
-    <t>({
+    <t>Security, authorization</t>
+  </si>
+  <si>
+    <t>Check that API is design according to correct security principles. Ensure API refuse all unauthorized calls</t>
+  </si>
+  <si>
+    <t>Call request by GET, and then POST method to https://openweathermap.org/data/2.5/find?q=berlin&amp;#&amp;appid=xyz83333542</t>
+  </si>
+  <si>
+    <t>Protocol checking</t>
+  </si>
+  <si>
+    <t>Call GET, and then POST request to this URL (http) http://openweathermap.org/data/2.5/find?q=,AU&amp;appid=439d4b804bc8187953eb36d2a8c26a02</t>
+  </si>
+  <si>
+    <t>Rate limiting, throttling</t>
+  </si>
+  <si>
+    <t>Access control policies: Verify each policy</t>
+  </si>
+  <si>
+    <t>Checking access of each type below Access-Control-Allow-Credentials: true
+Access-Control-Allow-Methods: GET, POST
+Access-Control-Allow-Origin: *</t>
+  </si>
+  <si>
+    <t>Open this URL on browser: https://openweathermap.org/data/2.5/find?q=ab&amp;#&amp;appid=439d4b804bc8187953eb36d2a8c26a02</t>
+  </si>
+  <si>
+    <t>{
+    "message": "accurate",
+    "cod": "200",
+    "count": 0,
+    "list": []
+}</t>
+  </si>
+  <si>
+    <t>{
+    "cod": 500,
+    "message": "Internal server error"
+}</t>
+  </si>
+  <si>
+    <t>Use JMETER tool to do stress test (1000k-5000k requests in 5 minutes) by sendingboth  GET request &amp; POST to this URL with different input values from CSV file for &amp;q=&lt;&lt;variable&gt;&gt;&amp;  https://openweathermap.org/data/2.5/find?callback=jQuery19109524587905221953</t>
+  </si>
+  <si>
+    <t>API should be set rate limitation, and all requests will be throttled when they exceed limit</t>
+  </si>
+  <si>
+    <t>api-search-11</t>
+  </si>
+  <si>
+    <t>api-search-12</t>
+  </si>
+  <si>
+    <t>api-search-13</t>
+  </si>
+  <si>
+    <t>api-search-14</t>
+  </si>
+  <si>
+    <t>api-search-15</t>
+  </si>
+  <si>
+    <t>Do stress test under limitation of API</t>
+  </si>
+  <si>
+    <t>Use JMETER tool to do stress test (50k-100k requests in 5 minutes) by sendingboth  GET request &amp; POST to this URL with different input values from CSV file for &amp;q=&lt;&lt;variable&gt;&gt;&amp;               https://openweathermap.org/data/2.5/find?q=glenwood,AU&amp;type=like&amp;sort=population&amp;cnt=30&amp;appid=439d4b804bc8187953eb36d2a8c26a02&amp;</t>
+  </si>
+  <si>
+    <t>Boundary</t>
+  </si>
+  <si>
+    <t>User input 1, 2 letters for searching</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_short_place_names</t>
+  </si>
+  <si>
+    <t>User input 500 characters for searching</t>
+  </si>
+  <si>
+    <t>User input data with number leter</t>
+  </si>
+  <si>
+    <t>{
     "message": "accurate",
     "cod": "200",
     "count": 1,
@@ -307,121 +392,37 @@
                 "lon": 150.9282
             },
             "main": {
-                "temp": 292.22,
-                "feels_like": 294.3,
-                "temp_min": 291.48,
-                "temp_max": 293.15,
-                "pressure": 1012,
-                "humidity": 88
+                "temp": 294.92,
+                "feels_like": 296.3,
+                "temp_min": 294.82,
+                "temp_max": 295.37,
+                "pressure": 1014,
+                "humidity": 70
             },
-            "dt": 1609229344,
+            "dt": 1609304944,
             "wind": {
-                "speed": 0.45,
-                "deg": 177
+                "speed": 0.89,
+                "deg": 123
             },
             "sys": {
                 "country": "AU"
             },
-            "rain": {
-                "1h": 0.16
-            },
+            "rain": null,
             "snow": null,
             "clouds": {
-                "all": 100
+                "all": 91
             },
             "weather": [
                 {
-                    "id": 500,
-                    "main": "Rain",
-                    "description": "light rain",
-                    "icon": "10d"
+                    "id": 804,
+                    "main": "Clouds",
+                    "description": "overcast clouds",
+                    "icon": "04d"
                 }
             ]
         }
     ]
-})</t>
-  </si>
-  <si>
-    <t>Security, authorization</t>
-  </si>
-  <si>
-    <t>Check that API is design according to correct security principles. Ensure API refuse all unauthorized calls</t>
-  </si>
-  <si>
-    <t>Call request by GET, and then POST method to https://openweathermap.org/data/2.5/find?q=berlin&amp;#&amp;appid=xyz83333542</t>
-  </si>
-  <si>
-    <t>Protocol checking</t>
-  </si>
-  <si>
-    <t>Call GET, and then POST request to this URL (http) http://openweathermap.org/data/2.5/find?q=,AU&amp;appid=439d4b804bc8187953eb36d2a8c26a02</t>
-  </si>
-  <si>
-    <t>Rate limiting, throttling</t>
-  </si>
-  <si>
-    <t>Access control policies: Verify each policy</t>
-  </si>
-  <si>
-    <t>Checking access of each type below Access-Control-Allow-Credentials: true
-Access-Control-Allow-Methods: GET, POST
-Access-Control-Allow-Origin: *</t>
-  </si>
-  <si>
-    <t>Open this URL on browser: https://openweathermap.org/data/2.5/find?q=ab&amp;#&amp;appid=439d4b804bc8187953eb36d2a8c26a02</t>
-  </si>
-  <si>
-    <t>{
-    "message": "accurate",
-    "cod": "200",
-    "count": 0,
-    "list": []
 }</t>
-  </si>
-  <si>
-    <t>{
-    "cod": 500,
-    "message": "Internal server error"
-}</t>
-  </si>
-  <si>
-    <t>Use JMETER tool to do stress test (1000k-5000k requests in 5 minutes) by sendingboth  GET request &amp; POST to this URL with different input values from CSV file for &amp;q=&lt;&lt;variable&gt;&gt;&amp;  https://openweathermap.org/data/2.5/find?callback=jQuery19109524587905221953</t>
-  </si>
-  <si>
-    <t>API should be set rate limitation, and all requests will be throttled when they exceed limit</t>
-  </si>
-  <si>
-    <t>api-search-11</t>
-  </si>
-  <si>
-    <t>api-search-12</t>
-  </si>
-  <si>
-    <t>api-search-13</t>
-  </si>
-  <si>
-    <t>api-search-14</t>
-  </si>
-  <si>
-    <t>api-search-15</t>
-  </si>
-  <si>
-    <t>Do stress test under limitation of API</t>
-  </si>
-  <si>
-    <t>Use JMETER tool to do stress test (50k-100k requests in 5 minutes) by sendingboth  GET request &amp; POST to this URL with different input values from CSV file for &amp;q=&lt;&lt;variable&gt;&gt;&amp;               https://openweathermap.org/data/2.5/find?q=glenwood,AU&amp;type=like&amp;sort=population&amp;cnt=30&amp;appid=439d4b804bc8187953eb36d2a8c26a02&amp;</t>
-  </si>
-  <si>
-    <t>Boundary</t>
-  </si>
-  <si>
-    <t>User input 1, 2 letters for searching</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_short_place_names</t>
-  </si>
-  <si>
-    <t>User input 500 characters for searching</t>
   </si>
 </sst>
 </file>
@@ -582,6 +583,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,14 +602,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10C6143-233F-704C-8AC0-5CC9A98D5DE0}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,15 +935,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1033,130 +1034,129 @@
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1174,398 +1174,407 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D22" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+    <row r="34" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F34" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+    <row r="35" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="B35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D35" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F35" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+    <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E36" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F36" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="9" t="s">
+    <row r="37" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E37" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F37" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+    <row r="38" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="B38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D38" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E38" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F38" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="D45" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="F47" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="C48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="E48" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E48" s="2"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E49" s="2"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C51" s="2"/>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="2"/>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="3:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="2" t="s">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="3:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="3:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C55" s="2" t="s">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="3:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C56" s="2" t="s">
+    <row r="57" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C57" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="3:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C57" s="2" t="s">
+    <row r="58" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="C58" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="3:5" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C60" s="2"/>
-    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="3:5" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C62" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
